--- a/results/advanced_saif_a_confMatrix.xlsx
+++ b/results/advanced_saif_a_confMatrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="advanced_saif_a_confMatrix" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
   <dimension ref="A1:AT46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="D3">
         <v>166</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E24">
         <v>190</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -6774,7 +6774,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
